--- a/results/test_excel/test_excel.xlsx
+++ b/results/test_excel/test_excel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thin\02_Code\Matlab\CryoGRID\CryoGrid_test_20191119\results\test_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="110">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -346,12 +351,15 @@
   </si>
   <si>
     <t>GROUND_fcSimple_salt_seb_snow</t>
+  </si>
+  <si>
+    <t>30.09.2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,7 +687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,8 +800,8 @@
       <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5">
-        <v>40816</v>
+      <c r="B15" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="D15" t="s">
         <v>75</v>
